--- a/data/trans_camb/P1422-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1422-Estudios-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-1.180763931611359</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2821358746794171</v>
+        <v>0.2821358746794175</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-0.225476893171571</v>
@@ -624,7 +624,7 @@
         <v>-0.6277142626220972</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.9032894639294221</v>
+        <v>0.9032894639294224</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.606479901710791</v>
+        <v>-2.678215714278498</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.415270406193473</v>
+        <v>-1.270591666077703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.087750956346525</v>
+        <v>-1.103066114731806</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2816882280346958</v>
+        <v>0.258890892155596</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.456594729338522</v>
+        <v>-1.397585861379039</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03752441398294051</v>
+        <v>0.1123176194371686</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06210045962111713</v>
+        <v>-0.1010004675744862</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.793832119552362</v>
+        <v>1.723182943321239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7964980137866192</v>
+        <v>0.7451562768520539</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.445533178112307</v>
+        <v>2.463827920352099</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1095112610792293</v>
+        <v>0.1452306448151792</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.778268635560602</v>
+        <v>1.889412361722428</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.506457876870096</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1210148212132689</v>
+        <v>0.121014821213269</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1687857800094823</v>
@@ -702,7 +702,7 @@
         <v>-0.3575752694739332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5145557345284981</v>
+        <v>0.5145557345284983</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7915056724647942</v>
+        <v>-0.7807330003217313</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4500527789698244</v>
+        <v>-0.4420829244776203</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6491364276373611</v>
+        <v>-0.6456427220712295</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1235222750827126</v>
+        <v>0.129986487491705</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6473426282144183</v>
+        <v>-0.6393366093228529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005561104085340924</v>
+        <v>0.0393425290287284</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1153687404372111</v>
+        <v>0.04504303251365314</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.119656293327226</v>
+        <v>1.075400175509616</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8951378972561923</v>
+        <v>0.8418160356798323</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.648013396457958</v>
+        <v>2.759081091104593</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08695024482622658</v>
+        <v>0.1465127322071921</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.338868324449402</v>
+        <v>1.348755110399456</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>-0.04128429318247251</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2875806213759548</v>
+        <v>0.2875806213759547</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.1108709002102921</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4275781149785259</v>
+        <v>0.4275781149785261</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6322432445335215</v>
+        <v>-0.6130426922090328</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.065212799199732</v>
+        <v>0.06965028597606809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4418589331669362</v>
+        <v>-0.4850961399896693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2096666480873309</v>
+        <v>-0.1270464641628788</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4041117774203743</v>
+        <v>-0.4096054457979776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1162488187317712</v>
+        <v>0.1034520034817251</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2380002807355055</v>
+        <v>0.2422361773112024</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.133704073515634</v>
+        <v>1.138785629802153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.367177062691957</v>
+        <v>0.3481132182768521</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6366647298766136</v>
+        <v>0.6549890715050671</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2002530906806086</v>
+        <v>0.1626432925753019</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7539649397244576</v>
+        <v>0.7915468313436964</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>-0.1130409099116996</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.7874271934274393</v>
+        <v>0.7874271934274391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2382127510792151</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9186771179552892</v>
+        <v>0.9186771179552895</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7748299729968247</v>
+        <v>-0.7649013055350078</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01652416427728988</v>
+        <v>0.0513090249385825</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7879579953887785</v>
+        <v>-0.7990067110392846</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3877292074132941</v>
+        <v>-0.2613176385958459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6370454854071815</v>
+        <v>-0.6395783275532313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.132828655783849</v>
+        <v>0.1474636622666922</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8461502693962617</v>
+        <v>0.9830971843832612</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.445948380964484</v>
+        <v>3.311396625860143</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.393538425765592</v>
+        <v>2.633805467193959</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.940427171606216</v>
+        <v>4.596985362993912</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7860752384356471</v>
+        <v>0.562135595849956</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.35251493223729</v>
+        <v>2.524418221484414</v>
       </c>
     </row>
     <row r="16">
@@ -932,13 +932,13 @@
         <v>0.8991498503270785</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6517612759508756</v>
+        <v>0.6517612759508755</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.3638073586163528</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08985084437501262</v>
+        <v>0.08985084437501253</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.634050977081302</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3500343777768012</v>
+        <v>0.3347820689318595</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2188973404971454</v>
+        <v>0.2180161445354451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4767145201735613</v>
+        <v>-0.4718393949924941</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8157748985698454</v>
+        <v>-0.6628844922002205</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1339696300552729</v>
+        <v>0.1528937742994818</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.00208556566267094</v>
+        <v>-0.03919592321634305</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.027384638719657</v>
+        <v>1.910371960750781</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.703168887124764</v>
+        <v>1.526642185326125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.599852879072118</v>
+        <v>1.569466986732708</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4928463313924137</v>
+        <v>0.5344313086269529</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.43762762445763</v>
+        <v>1.401214609832226</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8131122188338437</v>
+        <v>0.7948066220109808</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
         <v>1.517447218481246</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.3747695329572304</v>
+        <v>0.37476953295723</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>5.419310444710403</v>
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.794173238349419</v>
+        <v>-0.8143582166215709</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2710730560208633</v>
+        <v>-0.2215780363838738</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5126492298576202</v>
+        <v>-0.5472160956422164</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.05235026776698723</v>
+        <v>-0.08312779931316371</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5382537501774531</v>
+        <v>-0.5491619347765654</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.03134023970086251</v>
+        <v>-0.02845264958948452</v>
       </c>
     </row>
     <row r="24">
@@ -1121,22 +1121,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1420640747506159</v>
+        <v>0.1031596104621312</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7854900306126252</v>
+        <v>0.7725215274914492</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2733378785812014</v>
+        <v>0.3095933421518726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7028926363077505</v>
+        <v>0.6947469404262284</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06890578543272603</v>
+        <v>0.05104947502614336</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6016202636290884</v>
+        <v>0.6047513701366422</v>
       </c>
     </row>
     <row r="25">
@@ -1173,22 +1173,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6301074868361646</v>
+        <v>-0.633050461720982</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2206575266166243</v>
+        <v>-0.208137915877289</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5700758707117191</v>
+        <v>-0.5792577639490758</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.06313786721719006</v>
+        <v>-0.1023759614658259</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5351751325756332</v>
+        <v>-0.5388014184910697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02894132382471236</v>
+        <v>-0.02648756537170146</v>
       </c>
     </row>
     <row r="27">
@@ -1199,22 +1199,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.222823843201479</v>
+        <v>0.1755906003457728</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.071156635581855</v>
+        <v>1.02453122672932</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5298769266806008</v>
+        <v>0.6657954428486489</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.403837961106389</v>
+        <v>1.387699576259575</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1005817939940921</v>
+        <v>0.07595447133086722</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9050680590009573</v>
+        <v>0.9275877169398972</v>
       </c>
     </row>
     <row r="28">
